--- a/DATA_goal/Junction_Flooding_77.xlsx
+++ b/DATA_goal/Junction_Flooding_77.xlsx
@@ -446,7 +446,7 @@
     <col width="7" customWidth="1" min="2" max="2"/>
     <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
+    <col width="6" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
     <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
@@ -462,20 +462,20 @@
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
+    <col width="6" customWidth="1" min="21" max="21"/>
     <col width="7" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
     <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="6" customWidth="1" min="26" max="26"/>
+    <col width="6" customWidth="1" min="27" max="27"/>
     <col width="7" customWidth="1" min="28" max="28"/>
     <col width="7" customWidth="1" min="29" max="29"/>
     <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
+    <col width="6" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="6" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>41509.34027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>19.31</v>
+        <v>1.93</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>12.98</v>
+        <v>1.3</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>4.04</v>
+        <v>0.4</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>41.01</v>
+        <v>4.1</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>33</v>
+        <v>3.3</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>15.2</v>
+        <v>1.52</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>48.28</v>
+        <v>4.83</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>23.39</v>
+        <v>2.34</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>9.76</v>
+        <v>0.98</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>14.76</v>
+        <v>1.48</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>16.16</v>
+        <v>1.62</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>16.83</v>
+        <v>1.68</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>4.85</v>
+        <v>0.49</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>15.11</v>
+        <v>1.51</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>21.1</v>
+        <v>2.11</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>12.91</v>
+        <v>1.29</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.46</v>
+        <v>0.35</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.25</v>
+        <v>0.23</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>222.69</v>
+        <v>22.27</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>42.02</v>
+        <v>4.2</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>13.95</v>
+        <v>1.4</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>27.71</v>
+        <v>2.77</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>14.14</v>
+        <v>1.41</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>3.02</v>
+        <v>0.3</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>24.44</v>
+        <v>2.44</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>12.32</v>
+        <v>1.23</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>11.18</v>
+        <v>1.12</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>13.11</v>
+        <v>1.31</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>16.64</v>
+        <v>1.66</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.46</v>
+        <v>0.35</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>42.82</v>
+        <v>4.28</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>7.69</v>
+        <v>0.77</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>17.44</v>
+        <v>1.74</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>41509.34722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>11.91</v>
+        <v>1.19</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>8.24</v>
+        <v>0.82</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.66</v>
+        <v>0.17</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>25.66</v>
+        <v>2.57</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>20.64</v>
+        <v>2.06</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>9.380000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>37.56</v>
+        <v>3.76</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>14.43</v>
+        <v>1.44</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>6.15</v>
+        <v>0.62</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>9.06</v>
+        <v>0.91</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>10.26</v>
+        <v>1.03</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>10.67</v>
+        <v>1.07</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>3</v>
+        <v>0.3</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>9.32</v>
+        <v>0.93</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>13.08</v>
+        <v>1.31</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>8.130000000000001</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.52</v>
+        <v>0.15</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.93</v>
+        <v>0.09</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>134.6</v>
+        <v>13.46</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>26.16</v>
+        <v>2.62</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>8.609999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>17.24</v>
+        <v>1.72</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>8.91</v>
+        <v>0.89</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.79</v>
+        <v>0.18</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>18.05</v>
+        <v>1.81</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>7.6</v>
+        <v>0.76</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>6.95</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>8.130000000000001</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>10.58</v>
+        <v>1.06</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.27</v>
+        <v>0.13</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>34.27</v>
+        <v>3.43</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>4.72</v>
+        <v>0.47</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>10.76</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>41509.35416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>4.71</v>
+        <v>0.47</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>3.07</v>
+        <v>0.31</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.93</v>
+        <v>0.09</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>10.12</v>
+        <v>1.01</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>7.92</v>
+        <v>0.79</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>3.71</v>
+        <v>0.37</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>17.94</v>
+        <v>1.79</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>5.7</v>
+        <v>0.57</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>2.38</v>
+        <v>0.24</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>3.35</v>
+        <v>0.34</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>4.06</v>
+        <v>0.41</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>4.16</v>
+        <v>0.42</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>1.19</v>
+        <v>0.12</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>3.68</v>
+        <v>0.37</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>5.14</v>
+        <v>0.51</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>3.38</v>
+        <v>0.34</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.95</v>
+        <v>0.1</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.47</v>
+        <v>0.05</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>48.79</v>
+        <v>4.88</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>10.5</v>
+        <v>1.05</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>3.4</v>
+        <v>0.34</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>6.8</v>
+        <v>0.68</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>3.46</v>
+        <v>0.35</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.88</v>
+        <v>0.09</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>8.23</v>
+        <v>0.82</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>3</v>
+        <v>0.3</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>2.84</v>
+        <v>0.28</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>3.3</v>
+        <v>0.33</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>4.14</v>
+        <v>0.41</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.77</v>
+        <v>0.08</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>16.52</v>
+        <v>1.65</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>1.79</v>
+        <v>0.18</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>4.25</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>41509.36111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>8.460000000000001</v>
+        <v>0.85</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>6.01</v>
+        <v>0.6</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.84</v>
+        <v>0.08</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>18.32</v>
+        <v>1.83</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>14.79</v>
+        <v>1.48</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>6.65</v>
+        <v>0.67</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>24.77</v>
+        <v>2.48</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>10.24</v>
+        <v>1.02</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>4.42</v>
+        <v>0.44</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>6.49</v>
+        <v>0.65</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>7.36</v>
+        <v>0.74</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>7.69</v>
+        <v>0.77</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>2.12</v>
+        <v>0.21</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>6.62</v>
+        <v>0.66</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>9.300000000000001</v>
+        <v>0.93</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>5.74</v>
+        <v>0.57</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.75</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.48</v>
+        <v>0.05</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>93.36</v>
+        <v>9.34</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>18.43</v>
+        <v>1.84</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>6.11</v>
+        <v>0.61</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>12.2</v>
+        <v>1.22</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>6.4</v>
+        <v>0.64</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.17</v>
+        <v>0.12</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>11.93</v>
+        <v>1.19</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>5.39</v>
+        <v>0.54</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>4.89</v>
+        <v>0.49</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>5.73</v>
+        <v>0.57</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>7.65</v>
+        <v>0.77</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>22.26</v>
+        <v>2.23</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>3.36</v>
+        <v>0.34</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>7.64</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="6">
@@ -1071,103 +1071,103 @@
         <v>41509.36805555555</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>3.17</v>
+        <v>0.32</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>2.11</v>
+        <v>0.21</v>
       </c>
       <c r="D6" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="F6" s="4" t="n">
         <v>0.54</v>
       </c>
-      <c r="E6" s="4" t="n">
-        <v>6.85</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>5.36</v>
-      </c>
       <c r="G6" s="4" t="n">
-        <v>2.5</v>
+        <v>0.25</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>12.57</v>
+        <v>1.26</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>3.84</v>
+        <v>0.38</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>1.64</v>
+        <v>0.16</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>2.26</v>
+        <v>0.23</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>2.76</v>
+        <v>0.28</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>2.84</v>
+        <v>0.28</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>2.48</v>
+        <v>0.25</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>3.5</v>
+        <v>0.35</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>2.28</v>
+        <v>0.23</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.27</v>
+        <v>0.03</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>30.48</v>
+        <v>3.05</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>7.14</v>
+        <v>0.71</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>2.29</v>
+        <v>0.23</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>4.67</v>
+        <v>0.47</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>2.37</v>
+        <v>0.24</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>0.57</v>
+        <v>0.06</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>5.84</v>
+        <v>0.58</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>2.02</v>
+        <v>0.2</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>1.9</v>
+        <v>0.19</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>2.22</v>
+        <v>0.22</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>2.84</v>
+        <v>0.28</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.43</v>
+        <v>0.04</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>11.65</v>
+        <v>1.17</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>1.2</v>
+        <v>0.12</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>2.87</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="7">
@@ -1175,103 +1175,103 @@
         <v>41509.375</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>10.86</v>
+        <v>1.09</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>7.93</v>
+        <v>0.79</v>
       </c>
       <c r="D7" s="4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="E7" s="4" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="F7" s="4" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="G7" s="4" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="H7" s="4" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="I7" s="4" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="J7" s="4" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="K7" s="4" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="L7" s="4" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="M7" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" s="4" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="O7" s="4" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="P7" s="4" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="Q7" s="4" t="n">
         <v>0.72</v>
       </c>
-      <c r="E7" s="4" t="n">
-        <v>23.59</v>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>19.24</v>
-      </c>
-      <c r="G7" s="4" t="n">
-        <v>8.539999999999999</v>
-      </c>
-      <c r="H7" s="4" t="n">
-        <v>30.15</v>
-      </c>
-      <c r="I7" s="4" t="n">
-        <v>13.15</v>
-      </c>
-      <c r="J7" s="4" t="n">
-        <v>5.78</v>
-      </c>
-      <c r="K7" s="4" t="n">
-        <v>8.550000000000001</v>
-      </c>
-      <c r="L7" s="4" t="n">
-        <v>9.48</v>
-      </c>
-      <c r="M7" s="4" t="n">
-        <v>9.960000000000001</v>
-      </c>
-      <c r="N7" s="4" t="n">
-        <v>2.73</v>
-      </c>
-      <c r="O7" s="4" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="P7" s="4" t="n">
-        <v>12.02</v>
-      </c>
-      <c r="Q7" s="4" t="n">
-        <v>7.23</v>
-      </c>
       <c r="R7" s="4" t="n">
-        <v>0.54</v>
+        <v>0.05</v>
       </c>
       <c r="S7" s="4" t="n">
-        <v>0.46</v>
+        <v>0.05</v>
       </c>
       <c r="T7" s="4" t="n">
-        <v>121.97</v>
+        <v>12.2</v>
       </c>
       <c r="U7" s="4" t="n">
-        <v>23.62</v>
+        <v>2.36</v>
       </c>
       <c r="V7" s="4" t="n">
-        <v>7.84</v>
+        <v>0.78</v>
       </c>
       <c r="W7" s="4" t="n">
-        <v>15.8</v>
+        <v>1.58</v>
       </c>
       <c r="X7" s="4" t="n">
-        <v>8.32</v>
+        <v>0.83</v>
       </c>
       <c r="Y7" s="4" t="n">
-        <v>1.32</v>
+        <v>0.13</v>
       </c>
       <c r="Z7" s="4" t="n">
-        <v>14.86</v>
+        <v>1.49</v>
       </c>
       <c r="AA7" s="4" t="n">
-        <v>6.93</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AB7" s="4" t="n">
-        <v>6.18</v>
+        <v>0.62</v>
       </c>
       <c r="AC7" s="4" t="n">
-        <v>7.26</v>
+        <v>0.73</v>
       </c>
       <c r="AD7" s="4" t="n">
-        <v>9.91</v>
+        <v>0.99</v>
       </c>
       <c r="AE7" s="4" t="n">
-        <v>0.36</v>
+        <v>0.04</v>
       </c>
       <c r="AF7" s="4" t="n">
-        <v>27.05</v>
+        <v>2.71</v>
       </c>
       <c r="AG7" s="4" t="n">
-        <v>4.38</v>
+        <v>0.44</v>
       </c>
       <c r="AH7" s="4" t="n">
-        <v>9.800000000000001</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="8">
@@ -1279,103 +1279,103 @@
         <v>41509.38194444445</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>7.78</v>
+        <v>0.78</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>5.65</v>
+        <v>0.57</v>
       </c>
       <c r="D8" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E8" s="4" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="F8" s="4" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="G8" s="4" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="H8" s="4" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="I8" s="4" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="J8" s="4" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="K8" s="4" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="L8" s="4" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="M8" s="4" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="N8" s="4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="O8" s="4" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="P8" s="4" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="Q8" s="4" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="R8" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="S8" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="T8" s="4" t="n">
+        <v>8.539999999999999</v>
+      </c>
+      <c r="U8" s="4" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="V8" s="4" t="n">
         <v>0.5600000000000001</v>
       </c>
-      <c r="E8" s="4" t="n">
-        <v>16.91</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>13.75</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>6.12</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>24.79</v>
-      </c>
-      <c r="I8" s="4" t="n">
-        <v>9.42</v>
-      </c>
-      <c r="J8" s="4" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="K8" s="4" t="n">
-        <v>6.08</v>
-      </c>
-      <c r="L8" s="4" t="n">
-        <v>6.79</v>
-      </c>
-      <c r="M8" s="4" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="N8" s="4" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="O8" s="4" t="n">
-        <v>6.09</v>
-      </c>
-      <c r="P8" s="4" t="n">
-        <v>8.640000000000001</v>
-      </c>
-      <c r="Q8" s="4" t="n">
-        <v>5.21</v>
-      </c>
-      <c r="R8" s="4" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="S8" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="T8" s="4" t="n">
-        <v>85.38</v>
-      </c>
-      <c r="U8" s="4" t="n">
-        <v>17.1</v>
-      </c>
-      <c r="V8" s="4" t="n">
-        <v>5.62</v>
-      </c>
       <c r="W8" s="4" t="n">
-        <v>11.42</v>
+        <v>1.14</v>
       </c>
       <c r="X8" s="4" t="n">
-        <v>5.97</v>
+        <v>0.6</v>
       </c>
       <c r="Y8" s="4" t="n">
-        <v>0.98</v>
+        <v>0.1</v>
       </c>
       <c r="Z8" s="4" t="n">
-        <v>11.96</v>
+        <v>1.2</v>
       </c>
       <c r="AA8" s="4" t="n">
-        <v>4.97</v>
+        <v>0.5</v>
       </c>
       <c r="AB8" s="4" t="n">
-        <v>4.45</v>
+        <v>0.44</v>
       </c>
       <c r="AC8" s="4" t="n">
-        <v>5.22</v>
+        <v>0.52</v>
       </c>
       <c r="AD8" s="4" t="n">
-        <v>7.1</v>
+        <v>0.71</v>
       </c>
       <c r="AE8" s="4" t="n">
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="AF8" s="4" t="n">
-        <v>22.62</v>
+        <v>2.26</v>
       </c>
       <c r="AG8" s="4" t="n">
-        <v>3.13</v>
+        <v>0.31</v>
       </c>
       <c r="AH8" s="4" t="n">
-        <v>7.03</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="9">
@@ -1383,103 +1383,103 @@
         <v>41509.38888888889</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>9.699999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>7.12</v>
+        <v>0.71</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>0.59</v>
+        <v>0.06</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>21.09</v>
+        <v>2.11</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>17.23</v>
+        <v>1.72</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>7.64</v>
+        <v>0.76</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>29.21</v>
+        <v>2.92</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>11.75</v>
+        <v>1.18</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>5.2</v>
+        <v>0.52</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>7.67</v>
+        <v>0.77</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>8.470000000000001</v>
+        <v>0.85</v>
       </c>
       <c r="M9" s="4" t="n">
-        <v>8.92</v>
+        <v>0.89</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>2.44</v>
+        <v>0.24</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>7.59</v>
+        <v>0.76</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>10.78</v>
+        <v>1.08</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>6.44</v>
+        <v>0.64</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>0.41</v>
+        <v>0.04</v>
       </c>
       <c r="S9" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="T9" s="4" t="n">
+        <v>10.83</v>
+      </c>
+      <c r="U9" s="4" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="V9" s="4" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="W9" s="4" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X9" s="4" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="Y9" s="4" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="Z9" s="4" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AA9" s="4" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="AB9" s="4" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="AC9" s="4" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="AD9" s="4" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AE9" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AF9" s="4" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AG9" s="4" t="n">
         <v>0.39</v>
       </c>
-      <c r="T9" s="4" t="n">
-        <v>108.26</v>
-      </c>
-      <c r="U9" s="4" t="n">
-        <v>21.21</v>
-      </c>
-      <c r="V9" s="4" t="n">
-        <v>7.01</v>
-      </c>
-      <c r="W9" s="4" t="n">
-        <v>14.22</v>
-      </c>
-      <c r="X9" s="4" t="n">
-        <v>7.46</v>
-      </c>
-      <c r="Y9" s="4" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="Z9" s="4" t="n">
-        <v>14.19</v>
-      </c>
-      <c r="AA9" s="4" t="n">
-        <v>6.19</v>
-      </c>
-      <c r="AB9" s="4" t="n">
-        <v>5.51</v>
-      </c>
-      <c r="AC9" s="4" t="n">
-        <v>6.47</v>
-      </c>
-      <c r="AD9" s="4" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="AE9" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="AF9" s="4" t="n">
-        <v>26.45</v>
-      </c>
-      <c r="AG9" s="4" t="n">
-        <v>3.93</v>
-      </c>
       <c r="AH9" s="4" t="n">
-        <v>8.76</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="10">
@@ -1487,103 +1487,103 @@
         <v>41509.39583333334</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>7.21</v>
+        <v>0.72</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>5.26</v>
+        <v>0.53</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>0.47</v>
+        <v>0.05</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>15.66</v>
+        <v>1.57</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>12.76</v>
+        <v>1.28</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>5.67</v>
+        <v>0.57</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>23.25</v>
+        <v>2.32</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>8.73</v>
+        <v>0.87</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>3.86</v>
+        <v>0.39</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>5.66</v>
+        <v>0.57</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>6.29</v>
+        <v>0.63</v>
       </c>
       <c r="M10" s="4" t="n">
-        <v>6.62</v>
+        <v>0.66</v>
       </c>
       <c r="N10" s="4" t="n">
-        <v>1.81</v>
+        <v>0.18</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>5.64</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>8.02</v>
+        <v>0.8</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>4.8</v>
+        <v>0.48</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>0.36</v>
+        <v>0.04</v>
       </c>
       <c r="S10" s="4" t="n">
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="T10" s="4" t="n">
-        <v>78.51000000000001</v>
+        <v>7.85</v>
       </c>
       <c r="U10" s="4" t="n">
-        <v>15.83</v>
+        <v>1.58</v>
       </c>
       <c r="V10" s="4" t="n">
-        <v>5.21</v>
+        <v>0.52</v>
       </c>
       <c r="W10" s="4" t="n">
-        <v>10.6</v>
+        <v>1.06</v>
       </c>
       <c r="X10" s="4" t="n">
-        <v>5.54</v>
+        <v>0.55</v>
       </c>
       <c r="Y10" s="4" t="n">
-        <v>0.88</v>
+        <v>0.09</v>
       </c>
       <c r="Z10" s="4" t="n">
-        <v>11.15</v>
+        <v>1.12</v>
       </c>
       <c r="AA10" s="4" t="n">
-        <v>4.6</v>
+        <v>0.46</v>
       </c>
       <c r="AB10" s="4" t="n">
-        <v>4.1</v>
+        <v>0.41</v>
       </c>
       <c r="AC10" s="4" t="n">
-        <v>4.82</v>
+        <v>0.48</v>
       </c>
       <c r="AD10" s="4" t="n">
-        <v>6.59</v>
+        <v>0.66</v>
       </c>
       <c r="AE10" s="4" t="n">
-        <v>0.23</v>
+        <v>0.02</v>
       </c>
       <c r="AF10" s="4" t="n">
-        <v>21.19</v>
+        <v>2.12</v>
       </c>
       <c r="AG10" s="4" t="n">
-        <v>2.91</v>
+        <v>0.29</v>
       </c>
       <c r="AH10" s="4" t="n">
-        <v>6.51</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="11">

--- a/DATA_goal/Junction_Flooding_77.xlsx
+++ b/DATA_goal/Junction_Flooding_77.xlsx
@@ -443,7 +443,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
     <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
@@ -453,8 +453,8 @@
     <col width="7" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
     <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
     <col width="6" customWidth="1" min="15" max="15"/>
     <col width="7" customWidth="1" min="16" max="16"/>
@@ -464,18 +464,18 @@
     <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
     <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
     <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
     <col width="6" customWidth="1" min="27" max="27"/>
     <col width="6" customWidth="1" min="28" max="28"/>
     <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>44781.88194444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.64</v>
+        <v>6.43</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.52</v>
+        <v>5.21</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>1.46</v>
+        <v>14.56</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>1.15</v>
+        <v>11.53</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.45</v>
+        <v>4.49</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>1.5</v>
+        <v>15</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0.82</v>
+        <v>8.210000000000001</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.42</v>
+        <v>4.17</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.58</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.62</v>
+        <v>6.24</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.67</v>
+        <v>6.75</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.16</v>
+        <v>1.61</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.62</v>
       </c>
       <c r="P2" s="4" t="n">
+        <v>7.14</v>
+      </c>
+      <c r="Q2" s="4" t="n">
+        <v>4.88</v>
+      </c>
+      <c r="R2" s="4" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="S2" s="4" t="n">
         <v>0.71</v>
       </c>
-      <c r="Q2" s="4" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="R2" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="S2" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
       <c r="T2" s="4" t="n">
-        <v>7.84</v>
+        <v>78.41</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>1.54</v>
+        <v>15.37</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.52</v>
+        <v>5.18</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.359999999999999</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0.63</v>
+        <v>6.29</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.1</v>
+        <v>0.96</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>8.109999999999999</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.4</v>
+        <v>4.01</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.5</v>
+        <v>5.03</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>6.9</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.76</v>
+        <v>7.61</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.13</v>
+        <v>1.26</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>1.23</v>
+        <v>12.3</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.38</v>
+        <v>3.8</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.57</v>
+        <v>5.74</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44781.88888888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.11</v>
+        <v>11.08</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.85</v>
+        <v>8.49</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.02</v>
+        <v>0.18</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>2.46</v>
+        <v>24.63</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>1.99</v>
+        <v>19.92</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.83</v>
+        <v>8.34</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>3.22</v>
+        <v>32.2</v>
       </c>
       <c r="I3" s="4" t="n">
+        <v>13.67</v>
+      </c>
+      <c r="J3" s="4" t="n">
+        <v>6.63</v>
+      </c>
+      <c r="K3" s="4" t="n">
+        <v>9.17</v>
+      </c>
+      <c r="L3" s="4" t="n">
+        <v>10.04</v>
+      </c>
+      <c r="M3" s="4" t="n">
+        <v>10.68</v>
+      </c>
+      <c r="N3" s="4" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="O3" s="4" t="n">
+        <v>9</v>
+      </c>
+      <c r="P3" s="4" t="n">
+        <v>12.42</v>
+      </c>
+      <c r="Q3" s="4" t="n">
+        <v>7.67</v>
+      </c>
+      <c r="R3" s="4" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="S3" s="4" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="T3" s="4" t="n">
+        <v>130</v>
+      </c>
+      <c r="U3" s="4" t="n">
+        <v>25.17</v>
+      </c>
+      <c r="V3" s="4" t="n">
+        <v>8.31</v>
+      </c>
+      <c r="W3" s="4" t="n">
+        <v>16.49</v>
+      </c>
+      <c r="X3" s="4" t="n">
+        <v>9.35</v>
+      </c>
+      <c r="Y3" s="4" t="n">
         <v>1.37</v>
       </c>
-      <c r="J3" s="4" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="K3" s="4" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="L3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" s="4" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N3" s="4" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="O3" s="4" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="P3" s="4" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="Q3" s="4" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="R3" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="S3" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="T3" s="4" t="n">
-        <v>13</v>
-      </c>
-      <c r="U3" s="4" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="V3" s="4" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="W3" s="4" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="X3" s="4" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="Y3" s="4" t="n">
-        <v>0.14</v>
-      </c>
       <c r="Z3" s="4" t="n">
-        <v>1.65</v>
+        <v>16.53</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.71</v>
+        <v>7.13</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.71</v>
+        <v>7.11</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.86</v>
+        <v>8.619999999999999</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>1.1</v>
+        <v>11.02</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.06</v>
+        <v>0.65</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>2.9</v>
+        <v>29.03</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.51</v>
+        <v>5.12</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.01</v>
+        <v>10.06</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44781.89583333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.12</v>
+        <v>11.2</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.85</v>
+        <v>8.52</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.02</v>
+        <v>0.23</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>2.48</v>
+        <v>24.8</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>2.02</v>
+        <v>20.16</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.85</v>
+        <v>8.539999999999999</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>3.52</v>
+        <v>35.22</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.38</v>
+        <v>13.76</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.66</v>
+        <v>6.57</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.92</v>
+        <v>9.220000000000001</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>1.01</v>
+        <v>10.05</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.07</v>
+        <v>10.66</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.29</v>
+        <v>2.86</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.9</v>
+        <v>9</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>1.26</v>
+        <v>12.58</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.76</v>
+        <v>7.63</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.01</v>
+        <v>0.12</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.05</v>
+        <v>0.54</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>13</v>
+        <v>130.01</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>2.52</v>
+        <v>25.24</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.83</v>
+        <v>8.31</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>1.67</v>
+        <v>16.71</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.92</v>
+        <v>9.23</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.13</v>
+        <v>1.35</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>1.74</v>
+        <v>17.43</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.72</v>
+        <v>7.24</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>6.95</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.83</v>
+        <v>8.27</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.09</v>
+        <v>10.85</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.04</v>
+        <v>0.43</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>3.19</v>
+        <v>31.94</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.5</v>
+        <v>4.99</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.02</v>
+        <v>10.18</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44781.90277777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.89</v>
+        <v>8.869999999999999</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.67</v>
+        <v>6.74</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.02</v>
+        <v>0.18</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>1.97</v>
+        <v>19.66</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>1.6</v>
+        <v>15.97</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.68</v>
+        <v>6.76</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>2.92</v>
+        <v>29.2</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.09</v>
+        <v>10.9</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.52</v>
+        <v>5.22</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.73</v>
+        <v>7.29</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.8</v>
+        <v>7.96</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>0.84</v>
+        <v>8.44</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.23</v>
+        <v>2.27</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.71</v>
+        <v>7.12</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1</v>
+        <v>9.98</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.6</v>
+        <v>6.05</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.01</v>
+        <v>0.09</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.42</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>10.14</v>
+        <v>101.4</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>2</v>
+        <v>20.02</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.66</v>
+        <v>6.57</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>1.33</v>
+        <v>13.27</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.73</v>
+        <v>7.3</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.11</v>
+        <v>1.08</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>1.42</v>
+        <v>14.22</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.57</v>
+        <v>5.75</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.55</v>
+        <v>5.5</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.65</v>
+        <v>6.52</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.86</v>
+        <v>8.57</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.33</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>2.65</v>
+        <v>26.5</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.39</v>
+        <v>3.94</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>8.07</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_77.xlsx
+++ b/DATA_goal/Junction_Flooding_77.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>44781.88194444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>6.43</v>
+        <v>6.427</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>5.21</v>
+        <v>5.211</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>14.56</v>
+        <v>14.561</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>11.53</v>
+        <v>11.533</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>4.49</v>
+        <v>4.486</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>15</v>
+        <v>15.002</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>8.210000000000001</v>
+        <v>8.211</v>
       </c>
       <c r="J2" s="4" t="n">
         <v>4.17</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>5.58</v>
+        <v>5.579</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>6.24</v>
+        <v>6.239</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>6.75</v>
+        <v>6.747</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>1.61</v>
+        <v>1.607</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>5.62</v>
+        <v>5.615</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>7.14</v>
+        <v>7.139</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>4.88</v>
+        <v>4.876</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.27</v>
+        <v>0.271</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.71</v>
+        <v>0.709</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>78.41</v>
+        <v>78.413</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>15.37</v>
+        <v>15.366</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>5.18</v>
+        <v>5.184</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>9.359999999999999</v>
+        <v>9.362</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>6.29</v>
+        <v>6.286</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.96</v>
+        <v>0.958</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>8.109999999999999</v>
+        <v>8.106999999999999</v>
       </c>
       <c r="AA2" s="4" t="n">
         <v>4.01</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>5.03</v>
+        <v>5.031</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>6.9</v>
+        <v>6.902</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>7.61</v>
+        <v>7.612</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>1.26</v>
+        <v>1.257</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>12.3</v>
+        <v>12.304</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>3.8</v>
+        <v>3.802</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>5.74</v>
+        <v>5.737</v>
       </c>
     </row>
     <row r="3">
@@ -759,40 +759,40 @@
         <v>44781.88888888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>11.08</v>
+        <v>11.079</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>8.49</v>
+        <v>8.491</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.18</v>
+        <v>0.182</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>24.63</v>
+        <v>24.627</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>19.92</v>
+        <v>19.923</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>8.34</v>
+        <v>8.342000000000001</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>32.2</v>
+        <v>32.196</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>13.67</v>
+        <v>13.671</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>6.63</v>
+        <v>6.625</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>9.17</v>
+        <v>9.173999999999999</v>
       </c>
       <c r="L3" s="4" t="n">
         <v>10.04</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>10.68</v>
+        <v>10.679</v>
       </c>
       <c r="N3" s="4" t="n">
         <v>2.82</v>
@@ -801,61 +801,61 @@
         <v>9</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>12.42</v>
+        <v>12.419</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>7.67</v>
+        <v>7.671</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.15</v>
+        <v>0.152</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.63</v>
+        <v>0.627</v>
       </c>
       <c r="T3" s="4" t="n">
         <v>130</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>25.17</v>
+        <v>25.169</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>8.31</v>
+        <v>8.308</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>16.49</v>
+        <v>16.489</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>9.35</v>
+        <v>9.348000000000001</v>
       </c>
       <c r="Y3" s="4" t="n">
         <v>1.37</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>16.53</v>
+        <v>16.526</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>7.13</v>
+        <v>7.135</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>7.11</v>
+        <v>7.114</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>8.619999999999999</v>
+        <v>8.624000000000001</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>11.02</v>
+        <v>11.017</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.65</v>
+        <v>0.647</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>29.03</v>
+        <v>29.025</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>5.12</v>
+        <v>5.123</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>10.06</v>
+        <v>10.055</v>
       </c>
     </row>
     <row r="4">
@@ -863,108 +863,108 @@
         <v>44781.89583333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>11.2</v>
+        <v>11.205</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>8.52</v>
+        <v>8.523999999999999</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.23</v>
+        <v>0.227</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>24.8</v>
+        <v>24.805</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>20.16</v>
+        <v>20.165</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>8.539999999999999</v>
+        <v>8.542</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>35.22</v>
+        <v>35.219</v>
       </c>
       <c r="I4" s="4" t="n">
         <v>13.76</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>6.57</v>
+        <v>6.571</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>9.220000000000001</v>
+        <v>9.218</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>10.05</v>
+        <v>10.051</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>10.66</v>
+        <v>10.664</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>2.86</v>
+        <v>2.857</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>9</v>
+        <v>9.000999999999999</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>12.58</v>
+        <v>12.582</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>7.63</v>
+        <v>7.631</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.12</v>
+        <v>0.121</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.54</v>
+        <v>0.541</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>130.01</v>
+        <v>130.012</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>25.24</v>
+        <v>25.243</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>8.31</v>
+        <v>8.308999999999999</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>16.71</v>
+        <v>16.709</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>9.23</v>
+        <v>9.225</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.35</v>
+        <v>1.347</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>17.43</v>
+        <v>17.434</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>7.24</v>
+        <v>7.236</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>6.95</v>
+        <v>6.948</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>8.27</v>
+        <v>8.272</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>10.85</v>
+        <v>10.853</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.43</v>
+        <v>0.435</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>31.94</v>
+        <v>31.936</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>4.99</v>
+        <v>4.989</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>10.18</v>
+        <v>10.181</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44781.90277777778</v>
+        <v>44781.9027662037</v>
       </c>
       <c r="B5" s="4" t="n">
         <v>8.869999999999999</v>
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>8.07</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44781.90971064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>7.12</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>20.75</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>16.92</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>7.22</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>29.71</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>11.51</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>5.44</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>8.380000000000001</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>10.56</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>6.34</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>107.12</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>21.03</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>6.92</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>14</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>7.62</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>14.52</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>6.08</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>5.71</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>6.73</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>8.970000000000001</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>26.88</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>8.539999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_77.xlsx
+++ b/DATA_goal/Junction_Flooding_77.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -964,106 +964,210 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44781.9027662037</v>
+        <v>44781.90277777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>8.869999999999999</v>
+        <v>8.871</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>6.74</v>
+        <v>6.742</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.18</v>
+        <v>0.176</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>19.66</v>
+        <v>19.659</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>15.97</v>
+        <v>15.974</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>6.76</v>
+        <v>6.765</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>29.2</v>
+        <v>29.199</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>10.9</v>
+        <v>10.898</v>
       </c>
       <c r="J5" s="4" t="n">
         <v>5.22</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>7.29</v>
+        <v>7.294</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>7.96</v>
+        <v>7.959</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>8.44</v>
+        <v>8.439</v>
       </c>
       <c r="N5" s="4" t="n">
         <v>2.27</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>7.12</v>
+        <v>7.122</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>9.98</v>
+        <v>9.983000000000001</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>6.05</v>
+        <v>6.045</v>
       </c>
       <c r="R5" s="4" t="n">
         <v>0.09</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.42</v>
+        <v>0.424</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>101.4</v>
+        <v>101.403</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>20.02</v>
+        <v>20.023</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>6.57</v>
+        <v>6.574</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>13.27</v>
+        <v>13.267</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>7.3</v>
+        <v>7.295</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.08</v>
+        <v>1.082</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>14.22</v>
+        <v>14.222</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>5.75</v>
+        <v>5.747</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>5.5</v>
+        <v>5.504</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>6.52</v>
+        <v>6.518</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>8.57</v>
+        <v>8.571999999999999</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.33</v>
+        <v>0.327</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>26.5</v>
+        <v>26.502</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>3.94</v>
+        <v>3.936</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>8.07</v>
+        <v>8.071999999999999</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44781.90971064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>7.12</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>20.75</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>16.92</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>7.22</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>29.71</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>11.51</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>5.44</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>8.380000000000001</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>10.56</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>6.34</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>107.12</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>21.03</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>6.92</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>14</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>7.62</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>14.52</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>6.08</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>5.71</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>6.73</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>8.970000000000001</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>26.88</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>8.539999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_77.xlsx
+++ b/DATA_goal/Junction_Flooding_77.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -964,210 +964,106 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44781.90277777778</v>
+        <v>44781.9027662037</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>8.871</v>
+        <v>8.869999999999999</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>6.742</v>
+        <v>6.74</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.176</v>
+        <v>0.18</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>19.659</v>
+        <v>19.66</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>15.974</v>
+        <v>15.97</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>6.765</v>
+        <v>6.76</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>29.199</v>
+        <v>29.2</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>10.898</v>
+        <v>10.9</v>
       </c>
       <c r="J5" s="4" t="n">
         <v>5.22</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>7.294</v>
+        <v>7.29</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>7.959</v>
+        <v>7.96</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>8.439</v>
+        <v>8.44</v>
       </c>
       <c r="N5" s="4" t="n">
         <v>2.27</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>7.122</v>
+        <v>7.12</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>9.983000000000001</v>
+        <v>9.98</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>6.045</v>
+        <v>6.05</v>
       </c>
       <c r="R5" s="4" t="n">
         <v>0.09</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.424</v>
+        <v>0.42</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>101.403</v>
+        <v>101.4</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>20.023</v>
+        <v>20.02</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>6.574</v>
+        <v>6.57</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>13.267</v>
+        <v>13.27</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>7.295</v>
+        <v>7.3</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.082</v>
+        <v>1.08</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>14.222</v>
+        <v>14.22</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>5.747</v>
+        <v>5.75</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>5.504</v>
+        <v>5.5</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>6.518</v>
+        <v>6.52</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>8.571999999999999</v>
+        <v>8.57</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.327</v>
+        <v>0.33</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>26.502</v>
+        <v>26.5</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>3.936</v>
+        <v>3.94</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>8.071999999999999</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44781.90971064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>7.12</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>20.75</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>16.92</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>7.22</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>29.71</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>11.51</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>5.44</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>8.380000000000001</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>10.56</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>6.34</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>107.12</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>21.03</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>6.92</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>14</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>7.62</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>14.52</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>6.08</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>5.71</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>6.73</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>8.970000000000001</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>26.88</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>8.539999999999999</v>
+        <v>8.07</v>
       </c>
     </row>
   </sheetData>
